--- a/biology/Zoologie/Arrangement_des_colonies_de_coraux/Arrangement_des_colonies_de_coraux.xlsx
+++ b/biology/Zoologie/Arrangement_des_colonies_de_coraux/Arrangement_des_colonies_de_coraux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les coraux durs, aussi connus sous le nom de coraux bâtisseurs, développent de larges squelettes dont l'arrangement peut varier suivant plusieurs types connus.
 </t>
@@ -511,7 +523,9 @@
           <t>Plocoïde</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les calices sont monocentriques, bien différenciés et ne partagent pas leur mur avec d'autres calices. Ils sont connectés par le coenosteum.
 </t>
@@ -542,7 +556,9 @@
           <t>Phacéloïde</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les calices sont monocentriques, bien différenciés, mais haut et tubulaire. Ils sont toujours connectés par le coenosteum mais la vue du dessus peut le faire parfois confondre avec l'arrangement plocoïde.
 </t>
@@ -573,7 +589,9 @@
           <t>Cérioïde</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les calices sont différenciés mais sont adjacents ne laissant pas apparaître de coenosteum. Les calices ont alors souvent une forme hexagonale.
 </t>
@@ -604,7 +622,9 @@
           <t>Méandroïde</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les calices sont polycentriques, non différenciés. Ils forment des vallées de calices (on parle de calices polycentriques en série) dont les murs sont adjacents aux murs des autres vallées de calices.
 </t>
@@ -635,7 +655,9 @@
           <t>Flabello-méandroïde</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les calices sont polycentriques, non différenciés et haut. Ils forment des vallées de calices (on parle de calices polycentriques en série) dont les murs ne sont pas adjacents aux murs des autres vallées de calices.
 </t>
@@ -666,7 +688,9 @@
           <t>Dendroïde</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les calices sont polycentriques, tubulaires et les nouveaux calices se développent sur les parois des anciens calices à la manière des branches d'un arbre entre elles. Il n'y a pas de coenosteum visible.
 </t>
@@ -697,7 +721,9 @@
           <t>Hydnophoroïde</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Les calcines sont monocentriques mais disposent de murs en forme de petit monticules discontinus
 </t>
@@ -728,7 +754,9 @@
           <t>Thamnastérioïde</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Les calices sont monocentriques mais leur murs sont peu visibles. Un maillage de surface est observable et correspond à de longues côtes en rejoignant d'autres.
 </t>
@@ -759,7 +787,9 @@
           <t>Fungioïde</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">La colonie adopte une structure circulaire formées par des septes très longs et communs ne laissant pas apparaitre des murs pourtant existant à l'intérieur du squelette.
 </t>
